--- a/geotagged/countries_info_new.xlsx
+++ b/geotagged/countries_info_new.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottepanuskova/Nextcloud/translation-mapping/geotagged/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3CF83E-9DAE-5E4A-872D-92B1144128BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E053F05-78BA-5844-AD07-A61BB094C5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$250</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -7550,10 +7553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="N207" sqref="N207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M270" sqref="M270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7632,7 +7636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -7685,7 +7689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -7750,7 +7754,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -7809,7 +7813,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -7871,7 +7875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -7933,7 +7937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
@@ -7998,7 +8002,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>93</v>
       </c>
@@ -8060,7 +8064,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
@@ -8122,7 +8126,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -8184,7 +8188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
@@ -8246,7 +8250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>135</v>
       </c>
@@ -8302,7 +8306,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
@@ -8364,7 +8368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>154</v>
       </c>
@@ -8420,7 +8424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>164</v>
       </c>
@@ -8482,7 +8486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>177</v>
       </c>
@@ -8538,7 +8542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>188</v>
       </c>
@@ -8594,7 +8598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>197</v>
       </c>
@@ -8656,7 +8660,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>205</v>
       </c>
@@ -8718,7 +8722,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>216</v>
       </c>
@@ -8774,7 +8778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>225</v>
       </c>
@@ -8830,7 +8834,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>237</v>
       </c>
@@ -8892,7 +8896,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>247</v>
       </c>
@@ -8948,7 +8952,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>256</v>
       </c>
@@ -9001,7 +9005,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>266</v>
       </c>
@@ -9057,7 +9061,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>274</v>
       </c>
@@ -9113,7 +9117,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>282</v>
       </c>
@@ -9175,7 +9179,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>296</v>
       </c>
@@ -9237,7 +9241,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>311</v>
       </c>
@@ -9299,7 +9303,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>323</v>
       </c>
@@ -9352,7 +9356,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>335</v>
       </c>
@@ -9414,7 +9418,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>346</v>
       </c>
@@ -9476,7 +9480,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>356</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>370</v>
       </c>
@@ -9597,7 +9601,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>380</v>
       </c>
@@ -9659,7 +9663,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>394</v>
       </c>
@@ -9721,7 +9725,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>405</v>
       </c>
@@ -9783,7 +9787,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>417</v>
       </c>
@@ -9845,7 +9849,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>426</v>
       </c>
@@ -9907,7 +9911,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>435</v>
       </c>
@@ -9969,7 +9973,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>446</v>
       </c>
@@ -10031,7 +10035,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>455</v>
       </c>
@@ -10090,7 +10094,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>464</v>
       </c>
@@ -10146,7 +10150,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>474</v>
       </c>
@@ -10205,7 +10209,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>482</v>
       </c>
@@ -10267,7 +10271,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>491</v>
       </c>
@@ -10317,7 +10321,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>499</v>
       </c>
@@ -10373,7 +10377,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>508</v>
       </c>
@@ -10423,7 +10427,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>516</v>
       </c>
@@ -10473,7 +10477,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>524</v>
       </c>
@@ -10532,7 +10536,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>535</v>
       </c>
@@ -10591,7 +10595,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>542</v>
       </c>
@@ -10647,7 +10651,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>552</v>
       </c>
@@ -10703,7 +10707,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>562</v>
       </c>
@@ -10753,7 +10757,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>571</v>
       </c>
@@ -10809,7 +10813,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>582</v>
       </c>
@@ -10862,7 +10866,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>591</v>
       </c>
@@ -10921,7 +10925,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>603</v>
       </c>
@@ -10974,7 +10978,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>612</v>
       </c>
@@ -11030,7 +11034,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>620</v>
       </c>
@@ -11080,7 +11084,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>628</v>
       </c>
@@ -11133,7 +11137,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>636</v>
       </c>
@@ -11186,7 +11190,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>644</v>
       </c>
@@ -11242,7 +11246,7 @@
         <v>2081918</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>651</v>
       </c>
@@ -11304,7 +11308,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>662</v>
       </c>
@@ -11354,7 +11358,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>670</v>
       </c>
@@ -11410,7 +11414,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>680</v>
       </c>
@@ -11466,7 +11470,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>688</v>
       </c>
@@ -11522,7 +11526,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>697</v>
       </c>
@@ -11581,7 +11585,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>708</v>
       </c>
@@ -11637,7 +11641,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>717</v>
       </c>
@@ -11699,7 +11703,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>726</v>
       </c>
@@ -11752,7 +11756,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>733</v>
       </c>
@@ -11802,7 +11806,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>741</v>
       </c>
@@ -11855,7 +11859,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>749</v>
       </c>
@@ -11905,7 +11909,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>757</v>
       </c>
@@ -11955,7 +11959,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>766</v>
       </c>
@@ -12005,7 +12009,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>774</v>
       </c>
@@ -12129,7 +12133,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>793</v>
       </c>
@@ -12179,7 +12183,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>801</v>
       </c>
@@ -12232,7 +12236,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>810</v>
       </c>
@@ -12285,7 +12289,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>819</v>
       </c>
@@ -12344,7 +12348,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>825</v>
       </c>
@@ -12406,7 +12410,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>836</v>
       </c>
@@ -12465,7 +12469,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>843</v>
       </c>
@@ -12518,7 +12522,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>851</v>
       </c>
@@ -12574,7 +12578,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>861</v>
       </c>
@@ -12627,7 +12631,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>870</v>
       </c>
@@ -12680,7 +12684,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>878</v>
       </c>
@@ -12739,7 +12743,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>888</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>898</v>
       </c>
@@ -12857,7 +12861,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>910</v>
       </c>
@@ -12913,7 +12917,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>920</v>
       </c>
@@ -12963,7 +12967,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>928</v>
       </c>
@@ -13010,7 +13014,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>933</v>
       </c>
@@ -13069,7 +13073,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>940</v>
       </c>
@@ -13119,7 +13123,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>947</v>
       </c>
@@ -13169,7 +13173,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>955</v>
       </c>
@@ -13225,7 +13229,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>963</v>
       </c>
@@ -13287,7 +13291,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>973</v>
       </c>
@@ -13343,7 +13347,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>983</v>
       </c>
@@ -13402,7 +13406,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>991</v>
       </c>
@@ -13461,7 +13465,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>999</v>
       </c>
@@ -13520,7 +13524,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>1007</v>
       </c>
@@ -13576,7 +13580,7 @@
         <v>2078138</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>1014</v>
       </c>
@@ -13638,7 +13642,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>1027</v>
       </c>
@@ -13694,7 +13698,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>1038</v>
       </c>
@@ -13756,7 +13760,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>1050</v>
       </c>
@@ -13818,7 +13822,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>1059</v>
       </c>
@@ -13877,7 +13881,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>1069</v>
       </c>
@@ -13936,7 +13940,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>1079</v>
       </c>
@@ -13995,7 +13999,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>1088</v>
       </c>
@@ -14057,7 +14061,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>1098</v>
       </c>
@@ -14119,7 +14123,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1106</v>
       </c>
@@ -14175,7 +14179,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>1115</v>
       </c>
@@ -14234,7 +14238,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>1125</v>
       </c>
@@ -14293,7 +14297,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>1138</v>
       </c>
@@ -14352,7 +14356,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>1147</v>
       </c>
@@ -14411,7 +14415,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>1158</v>
       </c>
@@ -14470,7 +14474,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>1169</v>
       </c>
@@ -14532,7 +14536,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>1179</v>
       </c>
@@ -14594,7 +14598,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>1190</v>
       </c>
@@ -14653,7 +14657,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>1200</v>
       </c>
@@ -14715,7 +14719,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>1209</v>
       </c>
@@ -14777,7 +14781,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>1219</v>
       </c>
@@ -14839,7 +14843,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>1229</v>
       </c>
@@ -14895,7 +14899,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>1238</v>
       </c>
@@ -14957,7 +14961,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>1250</v>
       </c>
@@ -15019,7 +15023,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>1260</v>
       </c>
@@ -15078,7 +15082,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>1268</v>
       </c>
@@ -15137,7 +15141,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>1277</v>
       </c>
@@ -15193,7 +15197,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>1285</v>
       </c>
@@ -15252,7 +15256,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>1290</v>
       </c>
@@ -15302,7 +15306,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>1296</v>
       </c>
@@ -15358,7 +15362,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>1305</v>
       </c>
@@ -15414,7 +15418,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>1315</v>
       </c>
@@ -15470,7 +15474,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>1324</v>
       </c>
@@ -15526,7 +15530,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1333</v>
       </c>
@@ -15582,7 +15586,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>1341</v>
       </c>
@@ -15638,7 +15642,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>1349</v>
       </c>
@@ -15700,7 +15704,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1357</v>
       </c>
@@ -15756,7 +15760,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>1364</v>
       </c>
@@ -15818,7 +15822,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>1374</v>
       </c>
@@ -15874,7 +15878,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>1384</v>
       </c>
@@ -15930,7 +15934,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>1390</v>
       </c>
@@ -15992,7 +15996,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>1397</v>
       </c>
@@ -16051,7 +16055,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>1406</v>
       </c>
@@ -16107,7 +16111,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>1414</v>
       </c>
@@ -16163,7 +16167,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>1422</v>
       </c>
@@ -16222,7 +16226,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>1430</v>
       </c>
@@ -16284,7 +16288,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>1438</v>
       </c>
@@ -16343,7 +16347,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>1447</v>
       </c>
@@ -16399,7 +16403,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>1454</v>
       </c>
@@ -16458,7 +16462,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>1462</v>
       </c>
@@ -16520,7 +16524,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>1469</v>
       </c>
@@ -16576,7 +16580,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>1478</v>
       </c>
@@ -16635,7 +16639,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>1484</v>
       </c>
@@ -16697,7 +16701,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>1495</v>
       </c>
@@ -16759,7 +16763,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>1505</v>
       </c>
@@ -16821,7 +16825,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>1516</v>
       </c>
@@ -16883,7 +16887,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>1526</v>
       </c>
@@ -16942,7 +16946,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>1538</v>
       </c>
@@ -17004,7 +17008,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>1549</v>
       </c>
@@ -17066,7 +17070,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>1560</v>
       </c>
@@ -17128,7 +17132,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>1570</v>
       </c>
@@ -17187,7 +17191,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>1580</v>
       </c>
@@ -17249,7 +17253,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>1589</v>
       </c>
@@ -17311,7 +17315,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>1597</v>
       </c>
@@ -17370,7 +17374,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>1610</v>
       </c>
@@ -17432,7 +17436,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>1620</v>
       </c>
@@ -17494,7 +17498,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>1631</v>
       </c>
@@ -17550,7 +17554,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>1638</v>
       </c>
@@ -17612,7 +17616,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>1649</v>
       </c>
@@ -17674,7 +17678,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>1661</v>
       </c>
@@ -17736,7 +17740,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>1669</v>
       </c>
@@ -17798,7 +17802,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>1680</v>
       </c>
@@ -17860,7 +17864,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>1688</v>
       </c>
@@ -17922,7 +17926,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>1697</v>
       </c>
@@ -17978,7 +17982,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>1708</v>
       </c>
@@ -18040,7 +18044,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>1719</v>
       </c>
@@ -18102,7 +18106,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>1730</v>
       </c>
@@ -18164,7 +18168,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>1742</v>
       </c>
@@ -18223,7 +18227,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>1751</v>
       </c>
@@ -18285,7 +18289,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>1761</v>
       </c>
@@ -18347,7 +18351,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>1771</v>
       </c>
@@ -18409,7 +18413,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>1781</v>
       </c>
@@ -18459,7 +18463,7 @@
         <v>1547376</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>1787</v>
       </c>
@@ -18521,7 +18525,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>1796</v>
       </c>
@@ -18580,7 +18584,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>1806</v>
       </c>
@@ -18642,7 +18646,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>1817</v>
       </c>
@@ -18695,7 +18699,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>1824</v>
       </c>
@@ -18757,7 +18761,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>1833</v>
       </c>
@@ -18810,7 +18814,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>1839</v>
       </c>
@@ -18863,7 +18867,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>1848</v>
       </c>
@@ -18913,7 +18917,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>1858</v>
       </c>
@@ -18975,7 +18979,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>1867</v>
       </c>
@@ -19037,7 +19041,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>1877</v>
       </c>
@@ -19093,7 +19097,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>1887</v>
       </c>
@@ -19146,7 +19150,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>1894</v>
       </c>
@@ -19196,7 +19200,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>1901</v>
       </c>
@@ -19240,7 +19244,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>1906</v>
       </c>
@@ -19302,7 +19306,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>1916</v>
       </c>
@@ -19361,7 +19365,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>1922</v>
       </c>
@@ -19423,7 +19427,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>1932</v>
       </c>
@@ -19482,7 +19486,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>1941</v>
       </c>
@@ -19544,7 +19548,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>1954</v>
       </c>
@@ -19600,7 +19604,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>1965</v>
       </c>
@@ -19662,7 +19666,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>1977</v>
       </c>
@@ -19721,7 +19725,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>1986</v>
       </c>
@@ -19783,7 +19787,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>1995</v>
       </c>
@@ -19845,7 +19849,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>2005</v>
       </c>
@@ -19907,7 +19911,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>2015</v>
       </c>
@@ -19960,7 +19964,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>2024</v>
       </c>
@@ -20022,7 +20026,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>2035</v>
       </c>
@@ -20084,7 +20088,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>2046</v>
       </c>
@@ -20146,7 +20150,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>2057</v>
       </c>
@@ -20202,7 +20206,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>2067</v>
       </c>
@@ -20258,7 +20262,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>2076</v>
       </c>
@@ -20317,7 +20321,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>2086</v>
       </c>
@@ -20379,7 +20383,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>2096</v>
       </c>
@@ -20441,7 +20445,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>2105</v>
       </c>
@@ -20494,7 +20498,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>2114</v>
       </c>
@@ -20556,7 +20560,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>2126</v>
       </c>
@@ -20618,7 +20622,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>2137</v>
       </c>
@@ -20668,7 +20672,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>2145</v>
       </c>
@@ -20730,7 +20734,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>2151</v>
       </c>
@@ -20792,7 +20796,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>2160</v>
       </c>
@@ -20851,7 +20855,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>2168</v>
       </c>
@@ -20913,7 +20917,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>2178</v>
       </c>
@@ -20975,7 +20979,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>2188</v>
       </c>
@@ -21031,7 +21035,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>2197</v>
       </c>
@@ -21087,7 +21091,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>2204</v>
       </c>
@@ -21149,7 +21153,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>2216</v>
       </c>
@@ -21211,7 +21215,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>2227</v>
       </c>
@@ -21273,7 +21277,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>2238</v>
       </c>
@@ -21323,7 +21327,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>2243</v>
       </c>
@@ -21382,7 +21386,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>2252</v>
       </c>
@@ -21435,7 +21439,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>2260</v>
       </c>
@@ -21497,7 +21501,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>2272</v>
       </c>
@@ -21550,7 +21554,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>2279</v>
       </c>
@@ -21612,7 +21616,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>2291</v>
       </c>
@@ -21674,7 +21678,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>2301</v>
       </c>
@@ -21736,7 +21740,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>2311</v>
       </c>
@@ -21798,7 +21802,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>2323</v>
       </c>
@@ -21857,7 +21861,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>2331</v>
       </c>
@@ -21919,7 +21923,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>2341</v>
       </c>
@@ -21972,7 +21976,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>2348</v>
       </c>
@@ -22031,7 +22035,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>2356</v>
       </c>
@@ -22084,7 +22088,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>2363</v>
       </c>
@@ -22147,6 +22151,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V250" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Lesotho"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/geotagged/countries_info_new.xlsx
+++ b/geotagged/countries_info_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottepanuskova/Nextcloud/translation-mapping/geotagged/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E053F05-78BA-5844-AD07-A61BB094C5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2F3DE3-6A3E-EE4E-9154-3271085446B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,27 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$251</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="2389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="2396">
   <si>
     <t>Country</t>
   </si>
@@ -7190,6 +7203,27 @@
   </si>
   <si>
     <t>eng,dut,afr</t>
+  </si>
+  <si>
+    <t>Czechoslovakia</t>
+  </si>
+  <si>
+    <t>cze,slo</t>
+  </si>
+  <si>
+    <t>East Germany</t>
+  </si>
+  <si>
+    <t>West Germany</t>
+  </si>
+  <si>
+    <t>Korea, Democratic People's Republic of</t>
+  </si>
+  <si>
+    <t>USSR</t>
+  </si>
+  <si>
+    <t>Yugoslavia</t>
   </si>
 </sst>
 </file>
@@ -7219,7 +7253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -7242,13 +7276,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -7554,10 +7602,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:V250"/>
+  <dimension ref="A1:V256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M270" sqref="M270"/>
+      <selection activeCell="F257" sqref="F257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12071,7 +12119,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>783</v>
       </c>
@@ -20321,7 +20369,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="220" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>2086</v>
       </c>
@@ -20383,7 +20431,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="221" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>2096</v>
       </c>
@@ -22150,11 +22198,61 @@
         <v>2388</v>
       </c>
     </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="V251" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>2391</v>
+      </c>
+      <c r="V252" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="V253" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="V254" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="V255" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="V256" t="s">
+        <v>1525</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V250" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:V251" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Lesotho"/>
+        <filter val="Czechoslovakia"/>
+        <filter val="Slovakia"/>
+        <filter val="Slovenia"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/geotagged/countries_info_new.xlsx
+++ b/geotagged/countries_info_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottepanuskova/Nextcloud/translation-mapping/geotagged/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A05815E-4485-8641-9326-939CCA833DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7EA3AF-8AA9-CA49-9B63-6CBFE1450B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$256</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$258</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="2395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3714" uniqueCount="2407">
   <si>
     <t>Country</t>
   </si>
@@ -5075,9 +5075,6 @@
     <t>CN,TJ,UZ,KZ</t>
   </si>
   <si>
-    <t>kir</t>
-  </si>
-  <si>
     <t>Vatican</t>
   </si>
   <si>
@@ -6683,9 +6680,6 @@
     <t>CN,AF,KG,UZ</t>
   </si>
   <si>
-    <t>tgk</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -7163,18 +7157,12 @@
     <t>gle,eng</t>
   </si>
   <si>
-    <t>nya</t>
-  </si>
-  <si>
     <t>pus,prs</t>
   </si>
   <si>
     <t>dut,eng,fre</t>
   </si>
   <si>
-    <t>bib</t>
-  </si>
-  <si>
     <t>bam</t>
   </si>
   <si>
@@ -7221,6 +7209,54 @@
   </si>
   <si>
     <t>Yugoslavia</t>
+  </si>
+  <si>
+    <t>Byelarus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>Zaire</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Burma</t>
+  </si>
+  <si>
+    <t>Gambia, The</t>
+  </si>
+  <si>
+    <t>nya,eng</t>
+  </si>
+  <si>
+    <t>kir,rus</t>
+  </si>
+  <si>
+    <t>tgk,rus</t>
+  </si>
+  <si>
+    <t>bib,fre</t>
   </si>
 </sst>
 </file>
@@ -7288,18 +7324,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -7605,15 +7638,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:V256"/>
+  <dimension ref="A1:V258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V207" sqref="V207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA273" sqref="AA273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" customWidth="1"/>
     <col min="18" max="18" width="17.33203125" customWidth="1"/>
     <col min="21" max="21" width="15.1640625" customWidth="1"/>
     <col min="22" max="22" width="21.1640625" customWidth="1"/>
@@ -7740,27 +7774,27 @@
         <v>1237</v>
       </c>
       <c r="V2" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B3" t="s">
         <v>2160</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>2161</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2162</v>
       </c>
       <c r="D3">
         <v>248</v>
       </c>
       <c r="F3" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="G3" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="H3">
         <v>1580</v>
@@ -7772,7 +7806,7 @@
         <v>301</v>
       </c>
       <c r="K3" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="L3" t="s">
         <v>362</v>
@@ -7781,7 +7815,7 @@
         <v>363</v>
       </c>
       <c r="N3" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="O3" t="s">
         <v>79</v>
@@ -7790,7 +7824,7 @@
         <v>1256</v>
       </c>
       <c r="R3" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S3">
         <v>661882</v>
@@ -7799,30 +7833,30 @@
         <v>1251</v>
       </c>
       <c r="V3" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B4" t="s">
         <v>2126</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>2127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2128</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="G4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H4">
         <v>28748</v>
@@ -7834,16 +7868,16 @@
         <v>301</v>
       </c>
       <c r="K4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="L4" t="s">
         <v>2130</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>2131</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>2132</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2133</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
@@ -7852,16 +7886,16 @@
         <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="S4">
         <v>783754</v>
       </c>
       <c r="T4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="V4" t="s">
         <v>2135</v>
-      </c>
-      <c r="V4" t="s">
-        <v>2136</v>
       </c>
     </row>
     <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -8049,25 +8083,25 @@
     </row>
     <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B8" t="s">
         <v>1954</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>1955</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1956</v>
       </c>
       <c r="D8">
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="F8" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="G8" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="H8">
         <v>1246700</v>
@@ -8079,28 +8113,28 @@
         <v>25</v>
       </c>
       <c r="K8" t="s">
+        <v>1957</v>
+      </c>
+      <c r="L8" t="s">
         <v>1958</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>1959</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>1960</v>
       </c>
-      <c r="N8" t="s">
+      <c r="R8" t="s">
         <v>1961</v>
-      </c>
-      <c r="R8" t="s">
-        <v>1962</v>
       </c>
       <c r="S8">
         <v>3351879</v>
       </c>
       <c r="T8" t="s">
+        <v>1962</v>
+      </c>
+      <c r="V8" t="s">
         <v>1963</v>
-      </c>
-      <c r="V8" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -8329,25 +8363,25 @@
     </row>
     <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B13" t="s">
         <v>1848</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>1849</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1850</v>
       </c>
       <c r="D13">
         <v>533</v>
       </c>
       <c r="E13" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G13" t="s">
         <v>1851</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1848</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1852</v>
       </c>
       <c r="H13">
         <v>193</v>
@@ -8356,25 +8390,25 @@
         <v>105845</v>
       </c>
       <c r="K13" t="s">
+        <v>1852</v>
+      </c>
+      <c r="L13" t="s">
         <v>1853</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
+        <v>1844</v>
+      </c>
+      <c r="N13" t="s">
         <v>1854</v>
       </c>
-      <c r="M13" t="s">
-        <v>1845</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="R13" t="s">
         <v>1855</v>
-      </c>
-      <c r="R13" t="s">
-        <v>1856</v>
       </c>
       <c r="S13">
         <v>3577279</v>
       </c>
       <c r="V13" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -8792,7 +8826,7 @@
     </row>
     <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>296</v>
+        <v>2391</v>
       </c>
       <c r="B21" t="s">
         <v>297</v>
@@ -8854,25 +8888,25 @@
     </row>
     <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B22" t="s">
         <v>1858</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>1859</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1860</v>
       </c>
       <c r="D22">
         <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="F22" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="G22" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="H22">
         <v>30510</v>
@@ -8884,7 +8918,7 @@
         <v>301</v>
       </c>
       <c r="K22" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="L22" t="s">
         <v>362</v>
@@ -8893,7 +8927,7 @@
         <v>363</v>
       </c>
       <c r="N22" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="O22" t="s">
         <v>40</v>
@@ -8902,16 +8936,16 @@
         <v>41</v>
       </c>
       <c r="R22" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="S22">
         <v>2802361</v>
       </c>
       <c r="T22" t="s">
+        <v>1864</v>
+      </c>
+      <c r="V22" t="s">
         <v>1865</v>
-      </c>
-      <c r="V22" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -9193,19 +9227,19 @@
     </row>
     <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B28" t="s">
         <v>1901</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>1902</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1903</v>
       </c>
       <c r="D28">
         <v>535</v>
       </c>
       <c r="F28" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="H28">
         <v>328</v>
@@ -9214,7 +9248,7 @@
         <v>18012</v>
       </c>
       <c r="K28" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="L28" t="s">
         <v>529</v>
@@ -9223,16 +9257,16 @@
         <v>376</v>
       </c>
       <c r="N28" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="R28" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="S28">
         <v>7626844</v>
       </c>
       <c r="V28" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -9355,25 +9389,25 @@
     </row>
     <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B31" t="s">
         <v>1965</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>1966</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1967</v>
       </c>
       <c r="D31">
         <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F31" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G31" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="H31">
         <v>8511965</v>
@@ -9385,34 +9419,34 @@
         <v>196</v>
       </c>
       <c r="K31" t="s">
+        <v>1968</v>
+      </c>
+      <c r="L31" t="s">
         <v>1969</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>1970</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>1971</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>1972</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>1973</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>1974</v>
-      </c>
-      <c r="R31" t="s">
-        <v>1975</v>
       </c>
       <c r="S31">
         <v>3469034</v>
       </c>
       <c r="T31" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="V31" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -9520,25 +9554,25 @@
     </row>
     <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B34" t="s">
         <v>1318</v>
       </c>
       <c r="C34" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D34">
         <v>96</v>
       </c>
       <c r="E34" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G34" t="s">
         <v>1773</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1771</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1774</v>
       </c>
       <c r="H34">
         <v>5770</v>
@@ -9550,16 +9584,16 @@
         <v>50</v>
       </c>
       <c r="K34" t="s">
+        <v>1774</v>
+      </c>
+      <c r="L34" t="s">
         <v>1775</v>
-      </c>
-      <c r="L34" t="s">
-        <v>1776</v>
       </c>
       <c r="M34" t="s">
         <v>376</v>
       </c>
       <c r="N34" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="O34" t="s">
         <v>1134</v>
@@ -9568,16 +9602,16 @@
         <v>1135</v>
       </c>
       <c r="R34" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="S34">
         <v>1820814</v>
       </c>
       <c r="T34" t="s">
+        <v>1778</v>
+      </c>
+      <c r="V34" t="s">
         <v>1779</v>
-      </c>
-      <c r="V34" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -9642,7 +9676,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>1296</v>
       </c>
@@ -9695,7 +9729,7 @@
         <v>1304</v>
       </c>
       <c r="V36" t="s">
-        <v>2378</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -9756,25 +9790,25 @@
     </row>
     <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B38" t="s">
         <v>1977</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>1978</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1979</v>
       </c>
       <c r="D38">
         <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="F38" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G38" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="H38">
         <v>4033</v>
@@ -9786,16 +9820,16 @@
         <v>25</v>
       </c>
       <c r="K38" t="s">
+        <v>1980</v>
+      </c>
+      <c r="L38" t="s">
         <v>1981</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>1982</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>1983</v>
-      </c>
-      <c r="N38" t="s">
-        <v>1984</v>
       </c>
       <c r="O38" t="s">
         <v>40</v>
@@ -9804,13 +9838,13 @@
         <v>41</v>
       </c>
       <c r="R38" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="S38">
         <v>3374766</v>
       </c>
       <c r="V38" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -9872,7 +9906,7 @@
         <v>1648</v>
       </c>
       <c r="V39" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -10042,25 +10076,25 @@
     </row>
     <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B43" t="s">
         <v>1335</v>
       </c>
       <c r="C43" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D43">
         <v>140</v>
       </c>
       <c r="E43" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2066</v>
+      </c>
+      <c r="G43" t="s">
         <v>2069</v>
-      </c>
-      <c r="F43" t="s">
-        <v>2067</v>
-      </c>
-      <c r="G43" t="s">
-        <v>2070</v>
       </c>
       <c r="H43">
         <v>622984</v>
@@ -10072,7 +10106,7 @@
         <v>25</v>
       </c>
       <c r="K43" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="L43" t="s">
         <v>231</v>
@@ -10081,19 +10115,19 @@
         <v>232</v>
       </c>
       <c r="N43" t="s">
+        <v>2071</v>
+      </c>
+      <c r="R43" t="s">
         <v>2072</v>
-      </c>
-      <c r="R43" t="s">
-        <v>2073</v>
       </c>
       <c r="S43">
         <v>239880</v>
       </c>
       <c r="T43" t="s">
+        <v>2073</v>
+      </c>
+      <c r="V43" t="s">
         <v>2074</v>
-      </c>
-      <c r="V43" t="s">
-        <v>2075</v>
       </c>
     </row>
     <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -10216,13 +10250,13 @@
     </row>
     <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B46" t="s">
         <v>259</v>
       </c>
       <c r="C46" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="D46">
         <v>156</v>
@@ -10231,10 +10265,10 @@
         <v>436</v>
       </c>
       <c r="F46" t="s">
+        <v>2329</v>
+      </c>
+      <c r="G46" t="s">
         <v>2331</v>
-      </c>
-      <c r="G46" t="s">
-        <v>2333</v>
       </c>
       <c r="H46">
         <v>9596960</v>
@@ -10246,16 +10280,16 @@
         <v>50</v>
       </c>
       <c r="K46" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L46" t="s">
+        <v>2333</v>
+      </c>
+      <c r="M46" t="s">
         <v>2334</v>
       </c>
-      <c r="L46" t="s">
+      <c r="N46" t="s">
         <v>2335</v>
-      </c>
-      <c r="M46" t="s">
-        <v>2336</v>
-      </c>
-      <c r="N46" t="s">
-        <v>2337</v>
       </c>
       <c r="O46" t="s">
         <v>306</v>
@@ -10264,16 +10298,16 @@
         <v>307</v>
       </c>
       <c r="R46" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="S46">
         <v>1814991</v>
       </c>
       <c r="T46" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="V46" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -10334,13 +10368,13 @@
     </row>
     <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B48" t="s">
         <v>1781</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>1782</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1783</v>
       </c>
       <c r="D48">
         <v>166</v>
@@ -10349,10 +10383,10 @@
         <v>604</v>
       </c>
       <c r="F48" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G48" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="H48">
         <v>14</v>
@@ -10364,7 +10398,7 @@
         <v>50</v>
       </c>
       <c r="K48" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="L48" t="s">
         <v>539</v>
@@ -10376,7 +10410,7 @@
         <v>540</v>
       </c>
       <c r="R48" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="S48">
         <v>1547376</v>
@@ -10732,25 +10766,25 @@
     </row>
     <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B55" t="s">
         <v>606</v>
       </c>
       <c r="C55" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D55">
         <v>531</v>
       </c>
       <c r="E55" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G55" t="s">
         <v>1896</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1894</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1897</v>
       </c>
       <c r="H55">
         <v>444</v>
@@ -10759,25 +10793,25 @@
         <v>159849</v>
       </c>
       <c r="K55" t="s">
+        <v>1897</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1843</v>
+      </c>
+      <c r="M55" t="s">
+        <v>1844</v>
+      </c>
+      <c r="N55" t="s">
+        <v>1845</v>
+      </c>
+      <c r="R55" t="s">
         <v>1898</v>
-      </c>
-      <c r="L55" t="s">
-        <v>1844</v>
-      </c>
-      <c r="M55" t="s">
-        <v>1845</v>
-      </c>
-      <c r="N55" t="s">
-        <v>1846</v>
-      </c>
-      <c r="R55" t="s">
-        <v>1899</v>
       </c>
       <c r="S55">
         <v>7626836</v>
       </c>
       <c r="V55" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -10841,7 +10875,7 @@
     </row>
     <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>380</v>
+        <v>2392</v>
       </c>
       <c r="B57" t="s">
         <v>381</v>
@@ -10902,16 +10936,16 @@
       </c>
     </row>
     <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>2388</v>
+      <c r="A58" s="1" t="s">
+        <v>2384</v>
       </c>
       <c r="V58" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>1324</v>
+        <v>2396</v>
       </c>
       <c r="B59" t="s">
         <v>228</v>
@@ -11193,8 +11227,8 @@
       </c>
     </row>
     <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>2390</v>
+      <c r="A64" s="1" t="s">
+        <v>2386</v>
       </c>
       <c r="V64" t="s">
         <v>425</v>
@@ -11559,7 +11593,7 @@
     </row>
     <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>898</v>
+        <v>2399</v>
       </c>
       <c r="B71" t="s">
         <v>438</v>
@@ -12202,7 +12236,7 @@
     </row>
     <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>688</v>
+        <v>2402</v>
       </c>
       <c r="B82" t="s">
         <v>419</v>
@@ -12315,7 +12349,7 @@
         <v>1619</v>
       </c>
       <c r="V83" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -12607,7 +12641,7 @@
         <v>3425505</v>
       </c>
       <c r="V88" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -12951,25 +12985,25 @@
     </row>
     <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B95" t="s">
         <v>1986</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>1987</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1988</v>
       </c>
       <c r="D95">
         <v>624</v>
       </c>
       <c r="E95" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G95" t="s">
         <v>1989</v>
-      </c>
-      <c r="F95" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G95" t="s">
-        <v>1990</v>
       </c>
       <c r="H95">
         <v>36120</v>
@@ -12981,7 +13015,7 @@
         <v>25</v>
       </c>
       <c r="K95" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="L95" t="s">
         <v>1301</v>
@@ -12990,7 +13024,7 @@
         <v>232</v>
       </c>
       <c r="N95" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="O95" t="s">
         <v>40</v>
@@ -12999,16 +13033,16 @@
         <v>41</v>
       </c>
       <c r="R95" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="S95">
         <v>2372248</v>
       </c>
       <c r="T95" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="V95" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -13187,25 +13221,25 @@
     </row>
     <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C99" t="s">
         <v>2341</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2342</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2343</v>
       </c>
       <c r="D99">
         <v>344</v>
       </c>
       <c r="E99" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="F99" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="G99" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="H99">
         <v>1092</v>
@@ -13217,25 +13251,25 @@
         <v>50</v>
       </c>
       <c r="K99" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="L99" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="M99" t="s">
         <v>376</v>
       </c>
       <c r="N99" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="R99" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="S99">
         <v>1819730</v>
       </c>
       <c r="V99" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -13666,7 +13700,7 @@
         <v>652</v>
       </c>
       <c r="V106" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -14202,25 +14236,25 @@
     </row>
     <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B116" t="s">
         <v>2178</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>2179</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2180</v>
       </c>
       <c r="D116">
         <v>404</v>
       </c>
       <c r="E116" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F116" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="G116" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="H116">
         <v>582650</v>
@@ -14232,16 +14266,16 @@
         <v>25</v>
       </c>
       <c r="K116" t="s">
+        <v>2181</v>
+      </c>
+      <c r="L116" t="s">
         <v>2182</v>
       </c>
-      <c r="L116" t="s">
+      <c r="M116" t="s">
+        <v>1702</v>
+      </c>
+      <c r="N116" t="s">
         <v>2183</v>
-      </c>
-      <c r="M116" t="s">
-        <v>1703</v>
-      </c>
-      <c r="N116" t="s">
-        <v>2184</v>
       </c>
       <c r="O116" t="s">
         <v>79</v>
@@ -14250,16 +14284,16 @@
         <v>80</v>
       </c>
       <c r="R116" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="S116">
         <v>192950</v>
       </c>
       <c r="T116" t="s">
+        <v>2185</v>
+      </c>
+      <c r="V116" t="s">
         <v>2186</v>
-      </c>
-      <c r="V116" t="s">
-        <v>2187</v>
       </c>
     </row>
     <row r="117" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -14316,8 +14350,8 @@
       </c>
     </row>
     <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>2392</v>
+      <c r="A118" s="1" t="s">
+        <v>2388</v>
       </c>
       <c r="V118" t="s">
         <v>1660</v>
@@ -14325,25 +14359,25 @@
     </row>
     <row r="119" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B119" t="s">
         <v>2137</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>2138</v>
-      </c>
-      <c r="C119" t="s">
-        <v>2139</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F119" t="s">
+        <v>2136</v>
+      </c>
+      <c r="G119" t="s">
         <v>2140</v>
-      </c>
-      <c r="F119" t="s">
-        <v>2137</v>
-      </c>
-      <c r="G119" t="s">
-        <v>2141</v>
       </c>
       <c r="H119">
         <v>10908</v>
@@ -14361,16 +14395,16 @@
         <v>363</v>
       </c>
       <c r="R119" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="S119">
         <v>831053</v>
       </c>
       <c r="T119" t="s">
+        <v>2142</v>
+      </c>
+      <c r="V119" t="s">
         <v>2143</v>
-      </c>
-      <c r="V119" t="s">
-        <v>2144</v>
       </c>
     </row>
     <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -14494,30 +14528,30 @@
         <v>1678</v>
       </c>
       <c r="V121" t="s">
-        <v>1679</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="122" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B122" t="s">
         <v>1708</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>1709</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1710</v>
       </c>
       <c r="D122">
         <v>418</v>
       </c>
       <c r="E122" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F122" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="G122" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H122">
         <v>236800</v>
@@ -14529,16 +14563,16 @@
         <v>50</v>
       </c>
       <c r="K122" t="s">
+        <v>1711</v>
+      </c>
+      <c r="L122" t="s">
         <v>1712</v>
       </c>
-      <c r="L122" t="s">
+      <c r="M122" t="s">
         <v>1713</v>
       </c>
-      <c r="M122" t="s">
+      <c r="N122" t="s">
         <v>1714</v>
-      </c>
-      <c r="N122" t="s">
-        <v>1715</v>
       </c>
       <c r="O122" t="s">
         <v>79</v>
@@ -14547,39 +14581,39 @@
         <v>80</v>
       </c>
       <c r="R122" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="S122">
         <v>1655842</v>
       </c>
       <c r="T122" t="s">
+        <v>1716</v>
+      </c>
+      <c r="V122" t="s">
         <v>1717</v>
-      </c>
-      <c r="V122" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="123" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B123" t="s">
         <v>1730</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>1731</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1732</v>
       </c>
       <c r="D123">
         <v>428</v>
       </c>
       <c r="E123" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G123" t="s">
         <v>1733</v>
-      </c>
-      <c r="F123" t="s">
-        <v>1730</v>
-      </c>
-      <c r="G123" t="s">
-        <v>1734</v>
       </c>
       <c r="H123">
         <v>64589</v>
@@ -14591,7 +14625,7 @@
         <v>301</v>
       </c>
       <c r="K123" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="L123" t="s">
         <v>362</v>
@@ -14600,25 +14634,25 @@
         <v>363</v>
       </c>
       <c r="N123" t="s">
+        <v>1735</v>
+      </c>
+      <c r="O123" t="s">
         <v>1736</v>
       </c>
-      <c r="O123" t="s">
+      <c r="P123" t="s">
         <v>1737</v>
       </c>
-      <c r="P123" t="s">
+      <c r="R123" t="s">
         <v>1738</v>
-      </c>
-      <c r="R123" t="s">
-        <v>1739</v>
       </c>
       <c r="S123">
         <v>458258</v>
       </c>
       <c r="T123" t="s">
+        <v>1739</v>
+      </c>
+      <c r="V123" t="s">
         <v>1740</v>
-      </c>
-      <c r="V123" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="124" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -14927,25 +14961,25 @@
     </row>
     <row r="129" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B129" t="s">
         <v>785</v>
       </c>
       <c r="C129" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D129">
         <v>440</v>
       </c>
       <c r="E129" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1718</v>
+      </c>
+      <c r="G129" t="s">
         <v>1721</v>
-      </c>
-      <c r="F129" t="s">
-        <v>1719</v>
-      </c>
-      <c r="G129" t="s">
-        <v>1722</v>
       </c>
       <c r="H129">
         <v>65200</v>
@@ -14957,7 +14991,7 @@
         <v>301</v>
       </c>
       <c r="K129" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="L129" t="s">
         <v>362</v>
@@ -14966,48 +15000,48 @@
         <v>363</v>
       </c>
       <c r="N129" t="s">
+        <v>1723</v>
+      </c>
+      <c r="O129" t="s">
         <v>1724</v>
       </c>
-      <c r="O129" t="s">
+      <c r="P129" t="s">
         <v>1725</v>
       </c>
-      <c r="P129" t="s">
+      <c r="R129" t="s">
         <v>1726</v>
-      </c>
-      <c r="R129" t="s">
-        <v>1727</v>
       </c>
       <c r="S129">
         <v>597427</v>
       </c>
       <c r="T129" t="s">
+        <v>1727</v>
+      </c>
+      <c r="V129" t="s">
         <v>1728</v>
-      </c>
-      <c r="V129" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="130" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B130" t="s">
         <v>1688</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>1689</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1690</v>
       </c>
       <c r="D130">
         <v>442</v>
       </c>
       <c r="E130" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F130" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G130" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H130">
         <v>2586</v>
@@ -15019,7 +15053,7 @@
         <v>301</v>
       </c>
       <c r="K130" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="L130" t="s">
         <v>362</v>
@@ -15028,36 +15062,36 @@
         <v>363</v>
       </c>
       <c r="N130" t="s">
+        <v>1691</v>
+      </c>
+      <c r="O130" t="s">
         <v>1692</v>
       </c>
-      <c r="O130" t="s">
+      <c r="P130" t="s">
         <v>1693</v>
       </c>
-      <c r="P130" t="s">
+      <c r="R130" t="s">
         <v>1694</v>
-      </c>
-      <c r="R130" t="s">
-        <v>1695</v>
       </c>
       <c r="S130">
         <v>2960313</v>
       </c>
       <c r="T130" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="V130" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="131" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="B131" t="s">
         <v>147</v>
       </c>
       <c r="C131" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="D131">
         <v>446</v>
@@ -15066,10 +15100,10 @@
         <v>1391</v>
       </c>
       <c r="F131" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="G131" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="H131">
         <v>254</v>
@@ -15081,25 +15115,25 @@
         <v>50</v>
       </c>
       <c r="K131" t="s">
+        <v>2356</v>
+      </c>
+      <c r="L131" t="s">
+        <v>2357</v>
+      </c>
+      <c r="M131" t="s">
         <v>2358</v>
       </c>
-      <c r="L131" t="s">
+      <c r="N131" t="s">
         <v>2359</v>
       </c>
-      <c r="M131" t="s">
+      <c r="R131" t="s">
         <v>2360</v>
-      </c>
-      <c r="N131" t="s">
-        <v>2361</v>
-      </c>
-      <c r="R131" t="s">
-        <v>2362</v>
       </c>
       <c r="S131">
         <v>1821275</v>
       </c>
       <c r="V131" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="132" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -15163,25 +15197,25 @@
     </row>
     <row r="133" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B133" t="s">
         <v>1922</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>1923</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1924</v>
       </c>
       <c r="D133">
         <v>454</v>
       </c>
       <c r="E133" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G133" t="s">
         <v>1925</v>
-      </c>
-      <c r="F133" t="s">
-        <v>1922</v>
-      </c>
-      <c r="G133" t="s">
-        <v>1926</v>
       </c>
       <c r="H133">
         <v>118480</v>
@@ -15193,16 +15227,16 @@
         <v>25</v>
       </c>
       <c r="K133" t="s">
+        <v>1926</v>
+      </c>
+      <c r="L133" t="s">
         <v>1927</v>
-      </c>
-      <c r="L133" t="s">
-        <v>1928</v>
       </c>
       <c r="M133" t="s">
         <v>969</v>
       </c>
       <c r="N133" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="O133" t="s">
         <v>306</v>
@@ -15211,13 +15245,13 @@
         <v>307</v>
       </c>
       <c r="R133" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="S133">
         <v>927384</v>
       </c>
       <c r="T133" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="V133" t="s">
         <v>498</v>
@@ -15225,25 +15259,25 @@
     </row>
     <row r="134" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C134" t="s">
         <v>1787</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1788</v>
       </c>
       <c r="D134">
         <v>458</v>
       </c>
       <c r="E134" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="F134" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="G134" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H134">
         <v>329750</v>
@@ -15255,16 +15289,16 @@
         <v>50</v>
       </c>
       <c r="K134" t="s">
+        <v>1789</v>
+      </c>
+      <c r="L134" t="s">
         <v>1790</v>
       </c>
-      <c r="L134" t="s">
+      <c r="M134" t="s">
         <v>1791</v>
       </c>
-      <c r="M134" t="s">
+      <c r="N134" t="s">
         <v>1792</v>
-      </c>
-      <c r="N134" t="s">
-        <v>1793</v>
       </c>
       <c r="O134" t="s">
         <v>79</v>
@@ -15273,16 +15307,16 @@
         <v>80</v>
       </c>
       <c r="R134" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="S134">
         <v>1733045</v>
       </c>
       <c r="T134" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="V134" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="135" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -15341,7 +15375,7 @@
         <v>1282028</v>
       </c>
       <c r="V135" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="136" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -15397,30 +15431,30 @@
         <v>1413</v>
       </c>
       <c r="V136" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="137" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B137" t="s">
         <v>1796</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>1797</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1798</v>
       </c>
       <c r="D137">
         <v>470</v>
       </c>
       <c r="E137" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="F137" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G137" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H137">
         <v>316</v>
@@ -15432,7 +15466,7 @@
         <v>301</v>
       </c>
       <c r="K137" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="L137" t="s">
         <v>362</v>
@@ -15441,45 +15475,45 @@
         <v>363</v>
       </c>
       <c r="N137" t="s">
+        <v>1800</v>
+      </c>
+      <c r="O137" t="s">
         <v>1801</v>
       </c>
-      <c r="O137" t="s">
+      <c r="P137" t="s">
         <v>1802</v>
       </c>
-      <c r="P137" t="s">
+      <c r="R137" t="s">
         <v>1803</v>
-      </c>
-      <c r="R137" t="s">
-        <v>1804</v>
       </c>
       <c r="S137">
         <v>2562770</v>
       </c>
       <c r="V137" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="138" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B138" t="s">
         <v>796</v>
       </c>
       <c r="C138" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D138">
         <v>584</v>
       </c>
       <c r="E138" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G138" t="s">
         <v>1744</v>
-      </c>
-      <c r="F138" t="s">
-        <v>1742</v>
-      </c>
-      <c r="G138" t="s">
-        <v>1745</v>
       </c>
       <c r="H138">
         <v>181.3</v>
@@ -15491,7 +15525,7 @@
         <v>328</v>
       </c>
       <c r="K138" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="L138" t="s">
         <v>529</v>
@@ -15500,22 +15534,22 @@
         <v>376</v>
       </c>
       <c r="N138" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="O138" t="s">
         <v>531</v>
       </c>
       <c r="P138" t="s">
+        <v>1747</v>
+      </c>
+      <c r="R138" t="s">
         <v>1748</v>
-      </c>
-      <c r="R138" t="s">
-        <v>1749</v>
       </c>
       <c r="S138">
         <v>2080185</v>
       </c>
       <c r="V138" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="139" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -15859,25 +15893,25 @@
     </row>
     <row r="145" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B145" t="s">
         <v>2035</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>2036</v>
-      </c>
-      <c r="C145" t="s">
-        <v>2037</v>
       </c>
       <c r="D145">
         <v>498</v>
       </c>
       <c r="E145" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F145" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="G145" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="H145">
         <v>33843</v>
@@ -15889,37 +15923,37 @@
         <v>301</v>
       </c>
       <c r="K145" t="s">
+        <v>2038</v>
+      </c>
+      <c r="L145" t="s">
         <v>2039</v>
       </c>
-      <c r="L145" t="s">
+      <c r="M145" t="s">
+        <v>2029</v>
+      </c>
+      <c r="N145" t="s">
         <v>2040</v>
       </c>
-      <c r="M145" t="s">
-        <v>2030</v>
-      </c>
-      <c r="N145" t="s">
+      <c r="O145" t="s">
         <v>2041</v>
       </c>
-      <c r="O145" t="s">
+      <c r="P145" t="s">
         <v>2042</v>
       </c>
-      <c r="P145" t="s">
+      <c r="R145" t="s">
         <v>2043</v>
-      </c>
-      <c r="R145" t="s">
-        <v>2044</v>
       </c>
       <c r="S145">
         <v>617790</v>
       </c>
       <c r="T145" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="V145" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>1390</v>
       </c>
@@ -15981,15 +16015,15 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B147" t="s">
         <v>1393</v>
       </c>
       <c r="C147" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D147">
         <v>496</v>
@@ -15998,10 +16032,10 @@
         <v>1398</v>
       </c>
       <c r="F147" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="G147" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H147">
         <v>1565000</v>
@@ -16013,16 +16047,16 @@
         <v>50</v>
       </c>
       <c r="K147" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L147" t="s">
         <v>1764</v>
       </c>
-      <c r="L147" t="s">
+      <c r="M147" t="s">
         <v>1765</v>
       </c>
-      <c r="M147" t="s">
+      <c r="N147" t="s">
         <v>1766</v>
-      </c>
-      <c r="N147" t="s">
-        <v>1767</v>
       </c>
       <c r="O147" t="s">
         <v>306</v>
@@ -16031,39 +16065,39 @@
         <v>307</v>
       </c>
       <c r="R147" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="S147">
         <v>2029969</v>
       </c>
       <c r="T147" t="s">
+        <v>1768</v>
+      </c>
+      <c r="V147" t="s">
         <v>1769</v>
       </c>
-      <c r="V147" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B148" t="s">
         <v>2151</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>2152</v>
-      </c>
-      <c r="C148" t="s">
-        <v>2153</v>
       </c>
       <c r="D148">
         <v>499</v>
       </c>
       <c r="E148" t="s">
+        <v>2153</v>
+      </c>
+      <c r="F148" t="s">
+        <v>2150</v>
+      </c>
+      <c r="G148" t="s">
         <v>2154</v>
-      </c>
-      <c r="F148" t="s">
-        <v>2151</v>
-      </c>
-      <c r="G148" t="s">
-        <v>2155</v>
       </c>
       <c r="H148">
         <v>14026</v>
@@ -16075,7 +16109,7 @@
         <v>301</v>
       </c>
       <c r="K148" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="L148" t="s">
         <v>362</v>
@@ -16084,7 +16118,7 @@
         <v>363</v>
       </c>
       <c r="N148" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="O148" t="s">
         <v>79</v>
@@ -16093,19 +16127,19 @@
         <v>80</v>
       </c>
       <c r="R148" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="S148">
         <v>3194884</v>
       </c>
       <c r="T148" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="V148" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>793</v>
       </c>
@@ -16219,25 +16253,25 @@
     </row>
     <row r="151" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B151" t="s">
         <v>1995</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>1996</v>
-      </c>
-      <c r="C151" t="s">
-        <v>1997</v>
       </c>
       <c r="D151">
         <v>508</v>
       </c>
       <c r="E151" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F151" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G151" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H151">
         <v>801590</v>
@@ -16249,16 +16283,16 @@
         <v>25</v>
       </c>
       <c r="K151" t="s">
+        <v>1998</v>
+      </c>
+      <c r="L151" t="s">
         <v>1999</v>
       </c>
-      <c r="L151" t="s">
+      <c r="M151" t="s">
         <v>2000</v>
       </c>
-      <c r="M151" t="s">
+      <c r="N151" t="s">
         <v>2001</v>
-      </c>
-      <c r="N151" t="s">
-        <v>2002</v>
       </c>
       <c r="O151" t="s">
         <v>40</v>
@@ -16267,27 +16301,27 @@
         <v>41</v>
       </c>
       <c r="R151" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="S151">
         <v>1036973</v>
       </c>
       <c r="T151" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="V151" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="152" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B152" t="s">
         <v>1806</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>1807</v>
-      </c>
-      <c r="C152" t="s">
-        <v>1808</v>
       </c>
       <c r="D152">
         <v>104</v>
@@ -16296,10 +16330,10 @@
         <v>553</v>
       </c>
       <c r="F152" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G152" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="H152">
         <v>678500</v>
@@ -16311,16 +16345,16 @@
         <v>50</v>
       </c>
       <c r="K152" t="s">
+        <v>1809</v>
+      </c>
+      <c r="L152" t="s">
         <v>1810</v>
       </c>
-      <c r="L152" t="s">
+      <c r="M152" t="s">
         <v>1811</v>
       </c>
-      <c r="M152" t="s">
+      <c r="N152" t="s">
         <v>1812</v>
-      </c>
-      <c r="N152" t="s">
-        <v>1813</v>
       </c>
       <c r="O152" t="s">
         <v>79</v>
@@ -16329,16 +16363,16 @@
         <v>80</v>
       </c>
       <c r="R152" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="S152">
         <v>1327865</v>
       </c>
       <c r="T152" t="s">
+        <v>1814</v>
+      </c>
+      <c r="V152" t="s">
         <v>1815</v>
-      </c>
-      <c r="V152" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="153" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -16396,25 +16430,25 @@
     </row>
     <row r="154" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B154" t="s">
         <v>1817</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>1818</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1819</v>
       </c>
       <c r="D154">
         <v>520</v>
       </c>
       <c r="E154" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F154" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G154" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H154">
         <v>21</v>
@@ -16426,7 +16460,7 @@
         <v>328</v>
       </c>
       <c r="K154" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="L154" t="s">
         <v>539</v>
@@ -16435,39 +16469,39 @@
         <v>376</v>
       </c>
       <c r="N154" t="s">
+        <v>1821</v>
+      </c>
+      <c r="R154" t="s">
         <v>1822</v>
-      </c>
-      <c r="R154" t="s">
-        <v>1823</v>
       </c>
       <c r="S154">
         <v>2110425</v>
       </c>
       <c r="V154" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="155" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B155" t="s">
         <v>1824</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>1825</v>
-      </c>
-      <c r="C155" t="s">
-        <v>1826</v>
       </c>
       <c r="D155">
         <v>524</v>
       </c>
       <c r="E155" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F155" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="G155" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="H155">
         <v>140800</v>
@@ -16479,16 +16513,16 @@
         <v>50</v>
       </c>
       <c r="K155" t="s">
+        <v>1827</v>
+      </c>
+      <c r="L155" t="s">
         <v>1828</v>
-      </c>
-      <c r="L155" t="s">
-        <v>1829</v>
       </c>
       <c r="M155" t="s">
         <v>807</v>
       </c>
       <c r="N155" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="O155" t="s">
         <v>79</v>
@@ -16497,7 +16531,7 @@
         <v>80</v>
       </c>
       <c r="R155" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="S155">
         <v>1282988</v>
@@ -16506,30 +16540,30 @@
         <v>472</v>
       </c>
       <c r="V155" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="156" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B156" t="s">
         <v>359</v>
       </c>
       <c r="C156" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D156">
         <v>530</v>
       </c>
       <c r="E156" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G156" t="s">
         <v>1841</v>
-      </c>
-      <c r="F156" t="s">
-        <v>1839</v>
-      </c>
-      <c r="G156" t="s">
-        <v>1842</v>
       </c>
       <c r="H156">
         <v>960</v>
@@ -16538,19 +16572,19 @@
         <v>300000</v>
       </c>
       <c r="K156" t="s">
+        <v>1842</v>
+      </c>
+      <c r="L156" t="s">
         <v>1843</v>
       </c>
-      <c r="L156" t="s">
+      <c r="M156" t="s">
         <v>1844</v>
       </c>
-      <c r="M156" t="s">
+      <c r="N156" t="s">
         <v>1845</v>
       </c>
-      <c r="N156" t="s">
+      <c r="R156" t="s">
         <v>1846</v>
-      </c>
-      <c r="R156" t="s">
-        <v>1847</v>
       </c>
       <c r="S156">
         <v>8505032</v>
@@ -16559,7 +16593,7 @@
         <v>1385</v>
       </c>
       <c r="V156" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="157" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -16865,13 +16899,13 @@
     </row>
     <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B162" t="s">
         <v>1149</v>
       </c>
       <c r="C162" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D162">
         <v>570</v>
@@ -16880,10 +16914,10 @@
         <v>1431</v>
       </c>
       <c r="F162" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G162" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H162">
         <v>260</v>
@@ -16895,7 +16929,7 @@
         <v>328</v>
       </c>
       <c r="K162" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="L162" t="s">
         <v>609</v>
@@ -16904,10 +16938,10 @@
         <v>376</v>
       </c>
       <c r="N162" t="s">
+        <v>1836</v>
+      </c>
+      <c r="R162" t="s">
         <v>1837</v>
-      </c>
-      <c r="R162" t="s">
-        <v>1838</v>
       </c>
       <c r="S162">
         <v>4036232</v>
@@ -17039,25 +17073,25 @@
     </row>
     <row r="165" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B165" t="s">
         <v>1751</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>1752</v>
-      </c>
-      <c r="C165" t="s">
-        <v>1753</v>
       </c>
       <c r="D165">
         <v>807</v>
       </c>
       <c r="E165" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="F165" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G165" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="H165">
         <v>25333</v>
@@ -17069,16 +17103,16 @@
         <v>301</v>
       </c>
       <c r="K165" t="s">
+        <v>1754</v>
+      </c>
+      <c r="L165" t="s">
+        <v>1752</v>
+      </c>
+      <c r="M165" t="s">
         <v>1755</v>
       </c>
-      <c r="L165" t="s">
-        <v>1753</v>
-      </c>
-      <c r="M165" t="s">
+      <c r="N165" t="s">
         <v>1756</v>
-      </c>
-      <c r="N165" t="s">
-        <v>1757</v>
       </c>
       <c r="O165" t="s">
         <v>40</v>
@@ -17087,16 +17121,16 @@
         <v>41</v>
       </c>
       <c r="R165" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="S165">
         <v>718075</v>
       </c>
       <c r="T165" t="s">
+        <v>1758</v>
+      </c>
+      <c r="V165" t="s">
         <v>1759</v>
-      </c>
-      <c r="V165" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="166" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -17160,25 +17194,25 @@
     </row>
     <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B167" t="s">
         <v>1906</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>1907</v>
-      </c>
-      <c r="C167" t="s">
-        <v>1908</v>
       </c>
       <c r="D167">
         <v>578</v>
       </c>
       <c r="E167" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F167" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G167" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="H167">
         <v>324220</v>
@@ -17190,16 +17224,16 @@
         <v>301</v>
       </c>
       <c r="K167" t="s">
+        <v>1909</v>
+      </c>
+      <c r="L167" t="s">
         <v>1910</v>
-      </c>
-      <c r="L167" t="s">
-        <v>1911</v>
       </c>
       <c r="M167" t="s">
         <v>412</v>
       </c>
       <c r="N167" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O167" t="s">
         <v>40</v>
@@ -17208,16 +17242,16 @@
         <v>41</v>
       </c>
       <c r="R167" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="S167">
         <v>3144096</v>
       </c>
       <c r="T167" t="s">
+        <v>1913</v>
+      </c>
+      <c r="V167" t="s">
         <v>1914</v>
-      </c>
-      <c r="V167" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="168" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -17284,25 +17318,25 @@
     </row>
     <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C169" t="s">
         <v>2291</v>
-      </c>
-      <c r="B169" t="s">
-        <v>2292</v>
-      </c>
-      <c r="C169" t="s">
-        <v>2293</v>
       </c>
       <c r="D169">
         <v>586</v>
       </c>
       <c r="E169" t="s">
+        <v>2290</v>
+      </c>
+      <c r="F169" t="s">
+        <v>2289</v>
+      </c>
+      <c r="G169" t="s">
         <v>2292</v>
-      </c>
-      <c r="F169" t="s">
-        <v>2291</v>
-      </c>
-      <c r="G169" t="s">
-        <v>2294</v>
       </c>
       <c r="H169">
         <v>803940</v>
@@ -17314,16 +17348,16 @@
         <v>50</v>
       </c>
       <c r="K169" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="L169" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="M169" t="s">
         <v>807</v>
       </c>
       <c r="N169" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="O169" t="s">
         <v>79</v>
@@ -17332,27 +17366,27 @@
         <v>80</v>
       </c>
       <c r="R169" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="S169">
         <v>1168579</v>
       </c>
       <c r="T169" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="V169" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="170" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B170" t="s">
         <v>1932</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>1933</v>
-      </c>
-      <c r="C170" t="s">
-        <v>1934</v>
       </c>
       <c r="D170">
         <v>585</v>
@@ -17361,10 +17395,10 @@
         <v>178</v>
       </c>
       <c r="F170" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="G170" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="H170">
         <v>458</v>
@@ -17376,7 +17410,7 @@
         <v>328</v>
       </c>
       <c r="K170" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="L170" t="s">
         <v>529</v>
@@ -17385,16 +17419,16 @@
         <v>376</v>
       </c>
       <c r="N170" t="s">
+        <v>1936</v>
+      </c>
+      <c r="O170" t="s">
         <v>1937</v>
       </c>
-      <c r="O170" t="s">
+      <c r="P170" t="s">
         <v>1938</v>
       </c>
-      <c r="P170" t="s">
+      <c r="R170" t="s">
         <v>1939</v>
-      </c>
-      <c r="R170" t="s">
-        <v>1940</v>
       </c>
       <c r="S170">
         <v>1559582</v>
@@ -17706,25 +17740,25 @@
     </row>
     <row r="176" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C176" t="s">
         <v>2243</v>
-      </c>
-      <c r="B176" t="s">
-        <v>2244</v>
-      </c>
-      <c r="C176" t="s">
-        <v>2245</v>
       </c>
       <c r="D176">
         <v>608</v>
       </c>
       <c r="E176" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="F176" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="G176" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="H176">
         <v>300000</v>
@@ -17736,16 +17770,16 @@
         <v>50</v>
       </c>
       <c r="K176" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="L176" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="M176" t="s">
         <v>1020</v>
       </c>
       <c r="N176" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="O176" t="s">
         <v>40</v>
@@ -17754,7 +17788,7 @@
         <v>41</v>
       </c>
       <c r="R176" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="S176">
         <v>1694008</v>
@@ -17818,25 +17852,25 @@
     </row>
     <row r="178" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B178" t="s">
         <v>1941</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>1942</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1943</v>
       </c>
       <c r="D178">
         <v>616</v>
       </c>
       <c r="E178" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F178" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="G178" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="H178">
         <v>312685</v>
@@ -17848,57 +17882,57 @@
         <v>301</v>
       </c>
       <c r="K178" t="s">
+        <v>1944</v>
+      </c>
+      <c r="L178" t="s">
         <v>1945</v>
       </c>
-      <c r="L178" t="s">
+      <c r="M178" t="s">
         <v>1946</v>
       </c>
-      <c r="M178" t="s">
+      <c r="N178" t="s">
         <v>1947</v>
       </c>
-      <c r="N178" t="s">
+      <c r="O178" t="s">
         <v>1948</v>
       </c>
-      <c r="O178" t="s">
+      <c r="P178" t="s">
         <v>1949</v>
       </c>
-      <c r="P178" t="s">
+      <c r="R178" t="s">
         <v>1950</v>
-      </c>
-      <c r="R178" t="s">
-        <v>1951</v>
       </c>
       <c r="S178">
         <v>798544</v>
       </c>
       <c r="T178" t="s">
+        <v>1951</v>
+      </c>
+      <c r="V178" t="s">
         <v>1952</v>
-      </c>
-      <c r="V178" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="179" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B179" t="s">
         <v>2005</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>2006</v>
-      </c>
-      <c r="C179" t="s">
-        <v>2007</v>
       </c>
       <c r="D179">
         <v>620</v>
       </c>
       <c r="E179" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F179" t="s">
+        <v>2004</v>
+      </c>
+      <c r="G179" t="s">
         <v>2008</v>
-      </c>
-      <c r="F179" t="s">
-        <v>2005</v>
-      </c>
-      <c r="G179" t="s">
-        <v>2009</v>
       </c>
       <c r="H179">
         <v>92391</v>
@@ -17910,7 +17944,7 @@
         <v>301</v>
       </c>
       <c r="K179" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L179" t="s">
         <v>362</v>
@@ -17919,16 +17953,16 @@
         <v>363</v>
       </c>
       <c r="N179" t="s">
+        <v>2010</v>
+      </c>
+      <c r="O179" t="s">
         <v>2011</v>
       </c>
-      <c r="O179" t="s">
+      <c r="P179" t="s">
         <v>2012</v>
       </c>
-      <c r="P179" t="s">
+      <c r="R179" t="s">
         <v>2013</v>
-      </c>
-      <c r="R179" t="s">
-        <v>2014</v>
       </c>
       <c r="S179">
         <v>2264397</v>
@@ -17937,7 +17971,7 @@
         <v>687</v>
       </c>
       <c r="V179" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="180" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -18054,7 +18088,7 @@
     </row>
     <row r="182" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>1333</v>
+        <v>2397</v>
       </c>
       <c r="B182" t="s">
         <v>1326</v>
@@ -18169,25 +18203,25 @@
     </row>
     <row r="184" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B184" t="s">
         <v>2024</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>2025</v>
-      </c>
-      <c r="C184" t="s">
-        <v>2026</v>
       </c>
       <c r="D184">
         <v>642</v>
       </c>
       <c r="E184" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F184" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G184" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="H184">
         <v>237500</v>
@@ -18199,16 +18233,16 @@
         <v>301</v>
       </c>
       <c r="K184" t="s">
+        <v>2027</v>
+      </c>
+      <c r="L184" t="s">
         <v>2028</v>
       </c>
-      <c r="L184" t="s">
+      <c r="M184" t="s">
         <v>2029</v>
       </c>
-      <c r="M184" t="s">
+      <c r="N184" t="s">
         <v>2030</v>
-      </c>
-      <c r="N184" t="s">
-        <v>2031</v>
       </c>
       <c r="O184" t="s">
         <v>306</v>
@@ -18217,39 +18251,39 @@
         <v>307</v>
       </c>
       <c r="R184" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="S184">
         <v>798549</v>
       </c>
       <c r="T184" t="s">
+        <v>2032</v>
+      </c>
+      <c r="V184" t="s">
         <v>2033</v>
-      </c>
-      <c r="V184" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="185" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B185" t="s">
         <v>2046</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>2047</v>
-      </c>
-      <c r="C185" t="s">
-        <v>2048</v>
       </c>
       <c r="D185">
         <v>643</v>
       </c>
       <c r="E185" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F185" t="s">
+        <v>2045</v>
+      </c>
+      <c r="G185" t="s">
         <v>2049</v>
-      </c>
-      <c r="F185" t="s">
-        <v>2046</v>
-      </c>
-      <c r="G185" t="s">
-        <v>2050</v>
       </c>
       <c r="H185">
         <v>17100000</v>
@@ -18261,13 +18295,13 @@
         <v>301</v>
       </c>
       <c r="K185" t="s">
+        <v>2050</v>
+      </c>
+      <c r="L185" t="s">
         <v>2051</v>
       </c>
-      <c r="L185" t="s">
+      <c r="M185" t="s">
         <v>2052</v>
-      </c>
-      <c r="M185" t="s">
-        <v>2053</v>
       </c>
       <c r="N185" t="s">
         <v>1627</v>
@@ -18279,39 +18313,39 @@
         <v>307</v>
       </c>
       <c r="R185" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="S185">
         <v>2017370</v>
       </c>
       <c r="T185" t="s">
+        <v>2054</v>
+      </c>
+      <c r="V185" t="s">
         <v>2055</v>
-      </c>
-      <c r="V185" t="s">
-        <v>2056</v>
       </c>
     </row>
     <row r="186" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B186" t="s">
         <v>2057</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>2058</v>
-      </c>
-      <c r="C186" t="s">
-        <v>2059</v>
       </c>
       <c r="D186">
         <v>646</v>
       </c>
       <c r="E186" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="F186" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="G186" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H186">
         <v>26338</v>
@@ -18323,28 +18357,28 @@
         <v>25</v>
       </c>
       <c r="K186" t="s">
+        <v>2060</v>
+      </c>
+      <c r="L186" t="s">
         <v>2061</v>
-      </c>
-      <c r="L186" t="s">
-        <v>2062</v>
       </c>
       <c r="M186" t="s">
         <v>232</v>
       </c>
       <c r="N186" t="s">
+        <v>2062</v>
+      </c>
+      <c r="R186" t="s">
         <v>2063</v>
-      </c>
-      <c r="R186" t="s">
-        <v>2064</v>
       </c>
       <c r="S186">
         <v>49518</v>
       </c>
       <c r="T186" t="s">
+        <v>2064</v>
+      </c>
+      <c r="V186" t="s">
         <v>2065</v>
-      </c>
-      <c r="V186" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="187" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -18618,7 +18652,7 @@
         <v>494</v>
       </c>
       <c r="V191" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="192" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -18729,25 +18763,25 @@
     </row>
     <row r="194" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B194" t="s">
         <v>2105</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>2106</v>
-      </c>
-      <c r="C194" t="s">
-        <v>2107</v>
       </c>
       <c r="D194">
         <v>882</v>
       </c>
       <c r="E194" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="F194" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="G194" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H194">
         <v>2944</v>
@@ -18759,19 +18793,19 @@
         <v>328</v>
       </c>
       <c r="K194" t="s">
+        <v>2108</v>
+      </c>
+      <c r="L194" t="s">
         <v>2109</v>
       </c>
-      <c r="L194" t="s">
+      <c r="M194" t="s">
         <v>2110</v>
       </c>
-      <c r="M194" t="s">
+      <c r="N194" t="s">
         <v>2111</v>
       </c>
-      <c r="N194" t="s">
+      <c r="R194" t="s">
         <v>2112</v>
-      </c>
-      <c r="R194" t="s">
-        <v>2113</v>
       </c>
       <c r="S194">
         <v>4034894</v>
@@ -18844,25 +18878,25 @@
     </row>
     <row r="196" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B196" t="s">
         <v>769</v>
       </c>
       <c r="C196" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D196">
         <v>678</v>
       </c>
       <c r="E196" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F196" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G196" t="s">
         <v>2017</v>
-      </c>
-      <c r="F196" t="s">
-        <v>2015</v>
-      </c>
-      <c r="G196" t="s">
-        <v>2018</v>
       </c>
       <c r="H196">
         <v>1001</v>
@@ -18874,25 +18908,25 @@
         <v>25</v>
       </c>
       <c r="K196" t="s">
+        <v>2018</v>
+      </c>
+      <c r="L196" t="s">
         <v>2019</v>
       </c>
-      <c r="L196" t="s">
+      <c r="M196" t="s">
         <v>2020</v>
       </c>
-      <c r="M196" t="s">
+      <c r="N196" t="s">
         <v>2021</v>
       </c>
-      <c r="N196" t="s">
+      <c r="R196" t="s">
         <v>2022</v>
-      </c>
-      <c r="R196" t="s">
-        <v>2023</v>
       </c>
       <c r="S196">
         <v>2410758</v>
       </c>
       <c r="V196" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="197" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -19021,22 +19055,22 @@
     </row>
     <row r="199" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C199" t="s">
         <v>2145</v>
-      </c>
-      <c r="B199" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C199" t="s">
-        <v>2146</v>
       </c>
       <c r="D199">
         <v>688</v>
       </c>
       <c r="E199" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="F199" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="G199" t="s">
         <v>398</v>
@@ -19051,7 +19085,7 @@
         <v>301</v>
       </c>
       <c r="K199" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="L199" t="s">
         <v>400</v>
@@ -19069,19 +19103,19 @@
         <v>307</v>
       </c>
       <c r="R199" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="S199">
         <v>6290252</v>
       </c>
       <c r="T199" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="V199" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>394</v>
       </c>
@@ -19313,25 +19347,25 @@
     </row>
     <row r="204" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B204" t="s">
         <v>494</v>
       </c>
       <c r="C204" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D204">
         <v>534</v>
       </c>
       <c r="E204" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1886</v>
+      </c>
+      <c r="G204" t="s">
         <v>1889</v>
-      </c>
-      <c r="F204" t="s">
-        <v>1887</v>
-      </c>
-      <c r="G204" t="s">
-        <v>1890</v>
       </c>
       <c r="H204">
         <v>21</v>
@@ -19340,19 +19374,19 @@
         <v>40654</v>
       </c>
       <c r="K204" t="s">
+        <v>1890</v>
+      </c>
+      <c r="L204" t="s">
+        <v>1843</v>
+      </c>
+      <c r="M204" t="s">
+        <v>1844</v>
+      </c>
+      <c r="N204" t="s">
+        <v>1845</v>
+      </c>
+      <c r="R204" t="s">
         <v>1891</v>
-      </c>
-      <c r="L204" t="s">
-        <v>1844</v>
-      </c>
-      <c r="M204" t="s">
-        <v>1845</v>
-      </c>
-      <c r="N204" t="s">
-        <v>1846</v>
-      </c>
-      <c r="R204" t="s">
-        <v>1892</v>
       </c>
       <c r="S204">
         <v>7609695</v>
@@ -19361,30 +19395,30 @@
         <v>1286</v>
       </c>
       <c r="V204" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="205" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B205" t="s">
         <v>2086</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>2087</v>
-      </c>
-      <c r="C205" t="s">
-        <v>2088</v>
       </c>
       <c r="D205">
         <v>703</v>
       </c>
       <c r="E205" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F205" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G205" t="s">
         <v>2089</v>
-      </c>
-      <c r="F205" t="s">
-        <v>2086</v>
-      </c>
-      <c r="G205" t="s">
-        <v>2090</v>
       </c>
       <c r="H205">
         <v>48845</v>
@@ -19396,7 +19430,7 @@
         <v>301</v>
       </c>
       <c r="K205" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="L205" t="s">
         <v>362</v>
@@ -19405,7 +19439,7 @@
         <v>363</v>
       </c>
       <c r="N205" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="O205" t="s">
         <v>389</v>
@@ -19414,39 +19448,39 @@
         <v>390</v>
       </c>
       <c r="R205" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S205">
         <v>3057568</v>
       </c>
       <c r="T205" t="s">
+        <v>2093</v>
+      </c>
+      <c r="V205" t="s">
         <v>2094</v>
-      </c>
-      <c r="V205" t="s">
-        <v>2095</v>
       </c>
     </row>
     <row r="206" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B206" t="s">
         <v>2096</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>2097</v>
-      </c>
-      <c r="C206" t="s">
-        <v>2098</v>
       </c>
       <c r="D206">
         <v>705</v>
       </c>
       <c r="E206" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="F206" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="G206" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="H206">
         <v>20273</v>
@@ -19458,7 +19492,7 @@
         <v>301</v>
       </c>
       <c r="K206" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="L206" t="s">
         <v>362</v>
@@ -19467,28 +19501,28 @@
         <v>363</v>
       </c>
       <c r="N206" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="O206" t="s">
         <v>40</v>
       </c>
       <c r="P206" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R206" t="s">
         <v>2102</v>
-      </c>
-      <c r="R206" t="s">
-        <v>2103</v>
       </c>
       <c r="S206">
         <v>3190538</v>
       </c>
       <c r="T206" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="V206" t="s">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>861</v>
       </c>
@@ -19543,25 +19577,25 @@
     </row>
     <row r="208" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B208" t="s">
         <v>2114</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>2115</v>
-      </c>
-      <c r="C208" t="s">
-        <v>2116</v>
       </c>
       <c r="D208">
         <v>706</v>
       </c>
       <c r="E208" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="F208" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="G208" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="H208">
         <v>637657</v>
@@ -19573,57 +19607,57 @@
         <v>25</v>
       </c>
       <c r="K208" t="s">
+        <v>2117</v>
+      </c>
+      <c r="L208" t="s">
         <v>2118</v>
       </c>
-      <c r="L208" t="s">
+      <c r="M208" t="s">
+        <v>1702</v>
+      </c>
+      <c r="N208" t="s">
         <v>2119</v>
       </c>
-      <c r="M208" t="s">
-        <v>1703</v>
-      </c>
-      <c r="N208" t="s">
+      <c r="O208" t="s">
         <v>2120</v>
       </c>
-      <c r="O208" t="s">
+      <c r="P208" t="s">
         <v>2121</v>
       </c>
-      <c r="P208" t="s">
+      <c r="R208" t="s">
         <v>2122</v>
-      </c>
-      <c r="R208" t="s">
-        <v>2123</v>
       </c>
       <c r="S208">
         <v>51537</v>
       </c>
       <c r="T208" t="s">
+        <v>2123</v>
+      </c>
+      <c r="V208" t="s">
         <v>2124</v>
-      </c>
-      <c r="V208" t="s">
-        <v>2125</v>
       </c>
     </row>
     <row r="209" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="B209" t="s">
         <v>792</v>
       </c>
       <c r="C209" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="D209">
         <v>710</v>
       </c>
       <c r="E209" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="F209" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="G209" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="H209">
         <v>1219912</v>
@@ -19635,16 +19669,16 @@
         <v>25</v>
       </c>
       <c r="K209" t="s">
+        <v>2365</v>
+      </c>
+      <c r="L209" t="s">
+        <v>2366</v>
+      </c>
+      <c r="M209" t="s">
         <v>2367</v>
       </c>
-      <c r="L209" t="s">
+      <c r="N209" t="s">
         <v>2368</v>
-      </c>
-      <c r="M209" t="s">
-        <v>2369</v>
-      </c>
-      <c r="N209" t="s">
-        <v>2370</v>
       </c>
       <c r="O209" t="s">
         <v>40</v>
@@ -19653,16 +19687,16 @@
         <v>41</v>
       </c>
       <c r="R209" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="S209">
         <v>953987</v>
       </c>
       <c r="T209" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="V209" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="210" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -19897,25 +19931,25 @@
     </row>
     <row r="214" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B214" t="s">
         <v>2076</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>2077</v>
-      </c>
-      <c r="C214" t="s">
-        <v>2078</v>
       </c>
       <c r="D214">
         <v>144</v>
       </c>
       <c r="E214" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F214" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G214" t="s">
         <v>2079</v>
-      </c>
-      <c r="F214" t="s">
-        <v>2076</v>
-      </c>
-      <c r="G214" t="s">
-        <v>2080</v>
       </c>
       <c r="H214">
         <v>65610</v>
@@ -19927,16 +19961,16 @@
         <v>50</v>
       </c>
       <c r="K214" t="s">
+        <v>2080</v>
+      </c>
+      <c r="L214" t="s">
         <v>2081</v>
-      </c>
-      <c r="L214" t="s">
-        <v>2082</v>
       </c>
       <c r="M214" t="s">
         <v>807</v>
       </c>
       <c r="N214" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="O214" t="s">
         <v>79</v>
@@ -19945,13 +19979,13 @@
         <v>80</v>
       </c>
       <c r="R214" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="S214">
         <v>1227603</v>
       </c>
       <c r="V214" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="215" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -20018,25 +20052,25 @@
     </row>
     <row r="216" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B216" t="s">
         <v>1877</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>1878</v>
-      </c>
-      <c r="C216" t="s">
-        <v>1879</v>
       </c>
       <c r="D216">
         <v>740</v>
       </c>
       <c r="E216" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G216" t="s">
         <v>1880</v>
-      </c>
-      <c r="F216" t="s">
-        <v>1877</v>
-      </c>
-      <c r="G216" t="s">
-        <v>1881</v>
       </c>
       <c r="H216">
         <v>163270</v>
@@ -20048,39 +20082,39 @@
         <v>196</v>
       </c>
       <c r="K216" t="s">
+        <v>1881</v>
+      </c>
+      <c r="L216" t="s">
         <v>1882</v>
-      </c>
-      <c r="L216" t="s">
-        <v>1883</v>
       </c>
       <c r="M216" t="s">
         <v>376</v>
       </c>
       <c r="N216" t="s">
+        <v>1883</v>
+      </c>
+      <c r="R216" t="s">
         <v>1884</v>
-      </c>
-      <c r="R216" t="s">
-        <v>1885</v>
       </c>
       <c r="S216">
         <v>3382998</v>
       </c>
       <c r="T216" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="V216" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="217" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B217" t="s">
         <v>1916</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>1917</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1918</v>
       </c>
       <c r="D217">
         <v>744</v>
@@ -20089,10 +20123,10 @@
         <v>1191</v>
       </c>
       <c r="F217" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="G217" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="H217">
         <v>62049</v>
@@ -20104,16 +20138,16 @@
         <v>301</v>
       </c>
       <c r="K217" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="L217" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="M217" t="s">
         <v>412</v>
       </c>
       <c r="N217" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O217" t="s">
         <v>40</v>
@@ -20122,36 +20156,36 @@
         <v>41</v>
       </c>
       <c r="R217" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="S217">
         <v>607072</v>
       </c>
       <c r="V217" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="218" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B218" t="s">
         <v>872</v>
       </c>
       <c r="C218" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="D218">
         <v>752</v>
       </c>
       <c r="E218" t="s">
+        <v>2169</v>
+      </c>
+      <c r="F218" t="s">
+        <v>2167</v>
+      </c>
+      <c r="G218" t="s">
         <v>2170</v>
-      </c>
-      <c r="F218" t="s">
-        <v>2168</v>
-      </c>
-      <c r="G218" t="s">
-        <v>2171</v>
       </c>
       <c r="H218">
         <v>449964</v>
@@ -20163,34 +20197,34 @@
         <v>301</v>
       </c>
       <c r="K218" t="s">
+        <v>2171</v>
+      </c>
+      <c r="L218" t="s">
         <v>2172</v>
-      </c>
-      <c r="L218" t="s">
-        <v>2173</v>
       </c>
       <c r="M218" t="s">
         <v>1576</v>
       </c>
       <c r="N218" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="O218" t="s">
         <v>389</v>
       </c>
       <c r="P218" t="s">
+        <v>2174</v>
+      </c>
+      <c r="R218" t="s">
         <v>2175</v>
-      </c>
-      <c r="R218" t="s">
-        <v>2176</v>
       </c>
       <c r="S218">
         <v>2661886</v>
       </c>
       <c r="T218" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="V218" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="219" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -20313,25 +20347,25 @@
     </row>
     <row r="221" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C221" t="s">
         <v>2348</v>
-      </c>
-      <c r="B221" t="s">
-        <v>2349</v>
-      </c>
-      <c r="C221" t="s">
-        <v>2350</v>
       </c>
       <c r="D221">
         <v>158</v>
       </c>
       <c r="E221" t="s">
+        <v>2347</v>
+      </c>
+      <c r="F221" t="s">
+        <v>2346</v>
+      </c>
+      <c r="G221" t="s">
         <v>2349</v>
-      </c>
-      <c r="F221" t="s">
-        <v>2348</v>
-      </c>
-      <c r="G221" t="s">
-        <v>2351</v>
       </c>
       <c r="H221">
         <v>35980</v>
@@ -20343,16 +20377,16 @@
         <v>50</v>
       </c>
       <c r="K221" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="L221" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="M221" t="s">
         <v>376</v>
       </c>
       <c r="N221" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="O221" t="s">
         <v>79</v>
@@ -20361,36 +20395,36 @@
         <v>80</v>
       </c>
       <c r="R221" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="S221">
         <v>1668284</v>
       </c>
       <c r="V221" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="222" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B222" t="s">
         <v>2204</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>2205</v>
-      </c>
-      <c r="C222" t="s">
-        <v>2206</v>
       </c>
       <c r="D222">
         <v>762</v>
       </c>
       <c r="E222" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F222" t="s">
+        <v>2203</v>
+      </c>
+      <c r="G222" t="s">
         <v>2207</v>
-      </c>
-      <c r="F222" t="s">
-        <v>2204</v>
-      </c>
-      <c r="G222" t="s">
-        <v>2208</v>
       </c>
       <c r="H222">
         <v>143100</v>
@@ -20402,16 +20436,16 @@
         <v>50</v>
       </c>
       <c r="K222" t="s">
+        <v>2208</v>
+      </c>
+      <c r="L222" t="s">
         <v>2209</v>
       </c>
-      <c r="L222" t="s">
+      <c r="M222" t="s">
         <v>2210</v>
       </c>
-      <c r="M222" t="s">
+      <c r="N222" t="s">
         <v>2211</v>
-      </c>
-      <c r="N222" t="s">
-        <v>2212</v>
       </c>
       <c r="O222" t="s">
         <v>306</v>
@@ -20420,39 +20454,39 @@
         <v>307</v>
       </c>
       <c r="R222" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="S222">
         <v>1220409</v>
       </c>
       <c r="T222" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="V222" t="s">
-        <v>2215</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="223" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B223" t="s">
         <v>2188</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>2189</v>
-      </c>
-      <c r="C223" t="s">
-        <v>2190</v>
       </c>
       <c r="D223">
         <v>834</v>
       </c>
       <c r="E223" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="F223" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="G223" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="H223">
         <v>945087</v>
@@ -20464,51 +20498,51 @@
         <v>25</v>
       </c>
       <c r="K223" t="s">
+        <v>2191</v>
+      </c>
+      <c r="L223" t="s">
         <v>2192</v>
       </c>
-      <c r="L223" t="s">
+      <c r="M223" t="s">
+        <v>1702</v>
+      </c>
+      <c r="N223" t="s">
         <v>2193</v>
       </c>
-      <c r="M223" t="s">
-        <v>1703</v>
-      </c>
-      <c r="N223" t="s">
+      <c r="R223" t="s">
         <v>2194</v>
-      </c>
-      <c r="R223" t="s">
-        <v>2195</v>
       </c>
       <c r="S223">
         <v>149590</v>
       </c>
       <c r="T223" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="V223" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="224" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B224" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C224" t="s">
         <v>2216</v>
-      </c>
-      <c r="B224" t="s">
-        <v>2217</v>
-      </c>
-      <c r="C224" t="s">
-        <v>2218</v>
       </c>
       <c r="D224">
         <v>764</v>
       </c>
       <c r="E224" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F224" t="s">
+        <v>2214</v>
+      </c>
+      <c r="G224" t="s">
         <v>2217</v>
-      </c>
-      <c r="F224" t="s">
-        <v>2216</v>
-      </c>
-      <c r="G224" t="s">
-        <v>2219</v>
       </c>
       <c r="H224">
         <v>514000</v>
@@ -20520,16 +20554,16 @@
         <v>50</v>
       </c>
       <c r="K224" t="s">
+        <v>2218</v>
+      </c>
+      <c r="L224" t="s">
+        <v>2219</v>
+      </c>
+      <c r="M224" t="s">
         <v>2220</v>
       </c>
-      <c r="L224" t="s">
+      <c r="N224" t="s">
         <v>2221</v>
-      </c>
-      <c r="M224" t="s">
-        <v>2222</v>
-      </c>
-      <c r="N224" t="s">
-        <v>2223</v>
       </c>
       <c r="O224" t="s">
         <v>79</v>
@@ -20538,39 +20572,39 @@
         <v>80</v>
       </c>
       <c r="R224" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="S224">
         <v>1605651</v>
       </c>
       <c r="T224" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="V224" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="225" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B225" t="s">
         <v>1867</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>1868</v>
-      </c>
-      <c r="C225" t="s">
-        <v>1869</v>
       </c>
       <c r="D225">
         <v>528</v>
       </c>
       <c r="E225" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="F225" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="G225" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="H225">
         <v>41526</v>
@@ -20582,7 +20616,7 @@
         <v>301</v>
       </c>
       <c r="K225" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="L225" t="s">
         <v>362</v>
@@ -20591,36 +20625,36 @@
         <v>363</v>
       </c>
       <c r="N225" t="s">
+        <v>1871</v>
+      </c>
+      <c r="O225" t="s">
         <v>1872</v>
       </c>
-      <c r="O225" t="s">
+      <c r="P225" t="s">
         <v>1873</v>
       </c>
-      <c r="P225" t="s">
+      <c r="R225" t="s">
         <v>1874</v>
-      </c>
-      <c r="R225" t="s">
-        <v>1875</v>
       </c>
       <c r="S225">
         <v>2750405</v>
       </c>
       <c r="T225" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="V225" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="226" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B226" t="s">
         <v>2197</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>2198</v>
-      </c>
-      <c r="C226" t="s">
-        <v>2199</v>
       </c>
       <c r="D226">
         <v>626</v>
@@ -20629,10 +20663,10 @@
         <v>921</v>
       </c>
       <c r="F226" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G226" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="H226">
         <v>15007</v>
@@ -20644,7 +20678,7 @@
         <v>328</v>
       </c>
       <c r="K226" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="L226" t="s">
         <v>529</v>
@@ -20653,10 +20687,10 @@
         <v>376</v>
       </c>
       <c r="N226" t="s">
+        <v>2201</v>
+      </c>
+      <c r="R226" t="s">
         <v>2202</v>
-      </c>
-      <c r="R226" t="s">
-        <v>2203</v>
       </c>
       <c r="S226">
         <v>1966436</v>
@@ -20665,7 +20699,7 @@
         <v>1515</v>
       </c>
       <c r="V226" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="227" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -20726,22 +20760,22 @@
     </row>
     <row r="228" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="B228" t="s">
         <v>913</v>
       </c>
       <c r="C228" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="D228">
         <v>772</v>
       </c>
       <c r="E228" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F228" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="H228">
         <v>10</v>
@@ -20753,7 +20787,7 @@
         <v>328</v>
       </c>
       <c r="K228" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="L228" t="s">
         <v>609</v>
@@ -20762,10 +20796,10 @@
         <v>376</v>
       </c>
       <c r="N228" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="R228" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="S228">
         <v>4031074</v>
@@ -20776,13 +20810,13 @@
     </row>
     <row r="229" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B229" t="s">
         <v>1472</v>
       </c>
       <c r="C229" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="D229">
         <v>776</v>
@@ -20791,10 +20825,10 @@
         <v>238</v>
       </c>
       <c r="F229" t="s">
+        <v>2250</v>
+      </c>
+      <c r="G229" t="s">
         <v>2252</v>
-      </c>
-      <c r="G229" t="s">
-        <v>2254</v>
       </c>
       <c r="H229">
         <v>748</v>
@@ -20806,19 +20840,19 @@
         <v>328</v>
       </c>
       <c r="K229" t="s">
+        <v>2253</v>
+      </c>
+      <c r="L229" t="s">
+        <v>2254</v>
+      </c>
+      <c r="M229" t="s">
         <v>2255</v>
       </c>
-      <c r="L229" t="s">
+      <c r="N229" t="s">
         <v>2256</v>
       </c>
-      <c r="M229" t="s">
+      <c r="R229" t="s">
         <v>2257</v>
-      </c>
-      <c r="N229" t="s">
-        <v>2258</v>
-      </c>
-      <c r="R229" t="s">
-        <v>2259</v>
       </c>
       <c r="S229">
         <v>4032283</v>
@@ -20829,7 +20863,7 @@
     </row>
     <row r="230" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>920</v>
+        <v>2395</v>
       </c>
       <c r="B230" t="s">
         <v>921</v>
@@ -20941,25 +20975,25 @@
     </row>
     <row r="232" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B232" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C232" t="s">
         <v>2260</v>
-      </c>
-      <c r="B232" t="s">
-        <v>2261</v>
-      </c>
-      <c r="C232" t="s">
-        <v>2262</v>
       </c>
       <c r="D232">
         <v>792</v>
       </c>
       <c r="E232" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="F232" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="G232" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="H232">
         <v>780580</v>
@@ -20971,16 +21005,16 @@
         <v>50</v>
       </c>
       <c r="K232" t="s">
+        <v>2263</v>
+      </c>
+      <c r="L232" t="s">
+        <v>2264</v>
+      </c>
+      <c r="M232" t="s">
         <v>2265</v>
       </c>
-      <c r="L232" t="s">
+      <c r="N232" t="s">
         <v>2266</v>
-      </c>
-      <c r="M232" t="s">
-        <v>2267</v>
-      </c>
-      <c r="N232" t="s">
-        <v>2268</v>
       </c>
       <c r="O232" t="s">
         <v>79</v>
@@ -20989,39 +21023,39 @@
         <v>80</v>
       </c>
       <c r="R232" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="S232">
         <v>298795</v>
       </c>
       <c r="T232" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="V232" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="233" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B233" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C233" t="s">
         <v>2227</v>
-      </c>
-      <c r="B233" t="s">
-        <v>2228</v>
-      </c>
-      <c r="C233" t="s">
-        <v>2229</v>
       </c>
       <c r="D233">
         <v>795</v>
       </c>
       <c r="E233" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="F233" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="G233" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="H233">
         <v>488100</v>
@@ -21033,16 +21067,16 @@
         <v>50</v>
       </c>
       <c r="K233" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="L233" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="M233" t="s">
         <v>289</v>
       </c>
       <c r="N233" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="O233" t="s">
         <v>306</v>
@@ -21051,16 +21085,16 @@
         <v>307</v>
       </c>
       <c r="R233" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="S233">
         <v>1218197</v>
       </c>
       <c r="T233" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="V233" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="234" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -21121,25 +21155,25 @@
     </row>
     <row r="235" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B235" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C235" t="s">
         <v>2272</v>
-      </c>
-      <c r="B235" t="s">
-        <v>2273</v>
-      </c>
-      <c r="C235" t="s">
-        <v>2274</v>
       </c>
       <c r="D235">
         <v>798</v>
       </c>
       <c r="E235" t="s">
+        <v>2271</v>
+      </c>
+      <c r="F235" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G235" t="s">
         <v>2273</v>
-      </c>
-      <c r="F235" t="s">
-        <v>2272</v>
-      </c>
-      <c r="G235" t="s">
-        <v>2275</v>
       </c>
       <c r="H235">
         <v>26</v>
@@ -21151,7 +21185,7 @@
         <v>328</v>
       </c>
       <c r="K235" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="L235" t="s">
         <v>539</v>
@@ -21160,10 +21194,10 @@
         <v>376</v>
       </c>
       <c r="N235" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="R235" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="S235">
         <v>2110297</v>
@@ -21230,25 +21264,25 @@
     </row>
     <row r="237" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B237" t="s">
         <v>1697</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>1698</v>
-      </c>
-      <c r="C237" t="s">
-        <v>1699</v>
       </c>
       <c r="D237">
         <v>800</v>
       </c>
       <c r="E237" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F237" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="G237" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H237">
         <v>236040</v>
@@ -21260,51 +21294,51 @@
         <v>25</v>
       </c>
       <c r="K237" t="s">
+        <v>1700</v>
+      </c>
+      <c r="L237" t="s">
         <v>1701</v>
       </c>
-      <c r="L237" t="s">
+      <c r="M237" t="s">
         <v>1702</v>
       </c>
-      <c r="M237" t="s">
+      <c r="N237" t="s">
         <v>1703</v>
       </c>
-      <c r="N237" t="s">
+      <c r="R237" t="s">
         <v>1704</v>
-      </c>
-      <c r="R237" t="s">
-        <v>1705</v>
       </c>
       <c r="S237">
         <v>226074</v>
       </c>
       <c r="T237" t="s">
+        <v>1705</v>
+      </c>
+      <c r="V237" t="s">
         <v>1706</v>
-      </c>
-      <c r="V237" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="238" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C238" t="s">
         <v>2279</v>
-      </c>
-      <c r="B238" t="s">
-        <v>2280</v>
-      </c>
-      <c r="C238" t="s">
-        <v>2281</v>
       </c>
       <c r="D238">
         <v>804</v>
       </c>
       <c r="E238" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="F238" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="G238" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="H238">
         <v>603700</v>
@@ -21316,16 +21350,16 @@
         <v>301</v>
       </c>
       <c r="K238" t="s">
+        <v>2282</v>
+      </c>
+      <c r="L238" t="s">
+        <v>2283</v>
+      </c>
+      <c r="M238" t="s">
         <v>2284</v>
       </c>
-      <c r="L238" t="s">
+      <c r="N238" t="s">
         <v>2285</v>
-      </c>
-      <c r="M238" t="s">
-        <v>2286</v>
-      </c>
-      <c r="N238" t="s">
-        <v>2287</v>
       </c>
       <c r="O238" t="s">
         <v>79</v>
@@ -21334,16 +21368,16 @@
         <v>80</v>
       </c>
       <c r="R238" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="S238">
         <v>690791</v>
       </c>
       <c r="T238" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="V238" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="239" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -21636,34 +21670,34 @@
       </c>
     </row>
     <row r="244" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="3" t="s">
-        <v>2393</v>
+      <c r="A244" s="1" t="s">
+        <v>2389</v>
       </c>
       <c r="V244" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="245" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B245" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C245" t="s">
         <v>2301</v>
-      </c>
-      <c r="B245" t="s">
-        <v>2302</v>
-      </c>
-      <c r="C245" t="s">
-        <v>2303</v>
       </c>
       <c r="D245">
         <v>860</v>
       </c>
       <c r="E245" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F245" t="s">
+        <v>2299</v>
+      </c>
+      <c r="G245" t="s">
         <v>2302</v>
-      </c>
-      <c r="F245" t="s">
-        <v>2301</v>
-      </c>
-      <c r="G245" t="s">
-        <v>2304</v>
       </c>
       <c r="H245">
         <v>447400</v>
@@ -21675,16 +21709,16 @@
         <v>50</v>
       </c>
       <c r="K245" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="L245" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="M245" t="s">
         <v>1675</v>
       </c>
       <c r="N245" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="O245" t="s">
         <v>306</v>
@@ -21693,16 +21727,16 @@
         <v>307</v>
       </c>
       <c r="R245" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="S245">
         <v>1512440</v>
       </c>
       <c r="T245" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="V245" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="246" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -21760,25 +21794,25 @@
     </row>
     <row r="247" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B247" t="s">
         <v>1680</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>1681</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1682</v>
       </c>
       <c r="D247">
         <v>336</v>
       </c>
       <c r="E247" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G247" t="s">
         <v>1683</v>
-      </c>
-      <c r="F247" t="s">
-        <v>1680</v>
-      </c>
-      <c r="G247" t="s">
-        <v>1684</v>
       </c>
       <c r="H247">
         <v>0.44</v>
@@ -21790,7 +21824,7 @@
         <v>301</v>
       </c>
       <c r="K247" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="L247" t="s">
         <v>362</v>
@@ -21799,7 +21833,7 @@
         <v>363</v>
       </c>
       <c r="N247" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="O247" t="s">
         <v>79</v>
@@ -21808,7 +21842,7 @@
         <v>80</v>
       </c>
       <c r="R247" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="S247">
         <v>3164670</v>
@@ -21817,7 +21851,7 @@
         <v>1581</v>
       </c>
       <c r="V247" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="248" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
@@ -21884,25 +21918,25 @@
     </row>
     <row r="249" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B249" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C249" t="s">
         <v>2311</v>
-      </c>
-      <c r="B249" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C249" t="s">
-        <v>2313</v>
       </c>
       <c r="D249">
         <v>704</v>
       </c>
       <c r="E249" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F249" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="G249" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="H249">
         <v>329560</v>
@@ -21914,16 +21948,16 @@
         <v>50</v>
       </c>
       <c r="K249" t="s">
+        <v>2314</v>
+      </c>
+      <c r="L249" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M249" t="s">
         <v>2316</v>
       </c>
-      <c r="L249" t="s">
+      <c r="N249" t="s">
         <v>2317</v>
-      </c>
-      <c r="M249" t="s">
-        <v>2318</v>
-      </c>
-      <c r="N249" t="s">
-        <v>2319</v>
       </c>
       <c r="O249" t="s">
         <v>306</v>
@@ -21932,39 +21966,39 @@
         <v>307</v>
       </c>
       <c r="R249" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="S249">
         <v>1562822</v>
       </c>
       <c r="T249" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="V249" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="250" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B250" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C250" t="s">
         <v>2323</v>
-      </c>
-      <c r="B250" t="s">
-        <v>2324</v>
-      </c>
-      <c r="C250" t="s">
-        <v>2325</v>
       </c>
       <c r="D250">
         <v>876</v>
       </c>
       <c r="E250" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F250" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G250" t="s">
         <v>2324</v>
-      </c>
-      <c r="F250" t="s">
-        <v>2323</v>
-      </c>
-      <c r="G250" t="s">
-        <v>2326</v>
       </c>
       <c r="H250">
         <v>274</v>
@@ -21976,7 +22010,7 @@
         <v>328</v>
       </c>
       <c r="K250" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="L250" t="s">
         <v>1427</v>
@@ -21985,16 +22019,16 @@
         <v>232</v>
       </c>
       <c r="N250" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="O250" t="s">
         <v>79</v>
       </c>
       <c r="P250" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="R250" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="S250">
         <v>4034749</v>
@@ -22005,14 +22039,14 @@
     </row>
     <row r="251" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="V251" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="252" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="4" t="s">
+      <c r="A252" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B252" t="s">
@@ -22068,7 +22102,7 @@
       </c>
     </row>
     <row r="253" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="4" t="s">
+      <c r="A253" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B253" t="s">
@@ -22125,14 +22159,14 @@
     </row>
     <row r="254" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="V254" t="s">
         <v>1525</v>
       </c>
     </row>
     <row r="255" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="4" t="s">
+      <c r="A255" s="2" t="s">
         <v>963</v>
       </c>
       <c r="B255" t="s">
@@ -22194,7 +22228,7 @@
       </c>
     </row>
     <row r="256" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="4" t="s">
+      <c r="A256" s="2" t="s">
         <v>973</v>
       </c>
       <c r="B256" t="s">
@@ -22246,19 +22280,30 @@
         <v>982</v>
       </c>
       <c r="V256" t="s">
-        <v>2375</v>
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="3" t="s">
+        <v>2398</v>
+      </c>
+      <c r="V257" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>1750</v>
+      </c>
+      <c r="V258" t="s">
+        <v>1759</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V256" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:V258" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Monaco"/>
-        <filter val="Mongolia"/>
-        <filter val="Montenegro"/>
-        <filter val="Montserrat"/>
-        <filter val="Serbia and Montenegro"/>
-        <filter val="Solomon Islands"/>
+        <filter val="Burkina Faso"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V256">

--- a/geotagged/countries_info_new.xlsx
+++ b/geotagged/countries_info_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottepanuskova/Nextcloud/translation-mapping/geotagged/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7EA3AF-8AA9-CA49-9B63-6CBFE1450B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D474BC-80A4-C540-AAB0-C69F857CB445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7641,7 +7641,7 @@
   <dimension ref="A1:V258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA273" sqref="AA273"/>
+      <selection activeCell="D272" sqref="D272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9676,7 +9676,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>1296</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="221" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>2346</v>
       </c>
@@ -22303,7 +22303,7 @@
   <autoFilter ref="A1:V258" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Burkina Faso"/>
+        <filter val="Taiwan"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V256">
